--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -306,7 +306,7 @@
     <t>婚宴的气球</t>
   </si>
   <si>
-    <t>厨师长再沟通下分量</t>
+    <t>厨师长再沟通下分量,准备好几包烟</t>
   </si>
   <si>
     <t>定金</t>
@@ -413,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -458,28 +458,105 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,45 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -541,29 +579,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -579,28 +594,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -640,175 +640,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,30 +825,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,21 +839,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,8 +861,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,162 +925,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1833,8 +1833,8 @@
   <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" ht="54" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="54" spans="1:4">
+    <row r="5" ht="27" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>

--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="11720" activeTab="2"/>
+    <workbookView windowWidth="28660" windowHeight="11720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="婚车路线" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>婚车:1辆红色Model X特斯拉+5辆红色新款奔驰C</t>
   </si>
@@ -378,7 +378,7 @@
     <t>桌号</t>
   </si>
   <si>
-    <t>龚伟一家(3)、邹午荧一家(3),邹午荧的爷爷、奶奶、外公、外婆，龚伟的外婆</t>
+    <t>龚伟一家(3)、邹午荧一家(3),邹午荧的爷爷、奶奶、外公、外婆</t>
   </si>
   <si>
     <t>主桌</t>
@@ -393,6 +393,21 @@
     <t>徐昊辰(2),蒋鸿，孙武，龚乾明(2),孙秀伟、张其杰、王超</t>
   </si>
   <si>
+    <t>刘德茂(5)、龚粉章(5)</t>
+  </si>
+  <si>
+    <t>张正顺(2)、龚笑(2),龚连发(2)、范长银(2)、龚旭(2)</t>
+  </si>
+  <si>
+    <t>龚思明(4)、龚思情(4)、龚圣爱、储炳富</t>
+  </si>
+  <si>
+    <t>龚亚明(4)、韩克勋(2)、韩素萍、范志远(2，范志远的奶奶)、范子鑫、韩和芳带的一人</t>
+  </si>
+  <si>
+    <t>卞风松(2)、常本况(2)、龚思华(2)、崔和、赵公宪、何青(2)</t>
+  </si>
+  <si>
     <t>邹午荧家：</t>
   </si>
   <si>
@@ -406,6 +421,15 @@
   </si>
   <si>
     <t>闻渊、叶晓丽、韩俊、李慧，邹龙庆、石桂兰、陈海浩、顾群、刘毅，宗英</t>
+  </si>
+  <si>
+    <t>吴妙研(2),李现春(2),张航(2),钱隽(3)</t>
+  </si>
+  <si>
+    <t>张玎雅(2),庄明,杨陶陶,黄羽洋(2),朱依然,陈苒(2)</t>
+  </si>
+  <si>
+    <t>待定(巧兰及其儿子）</t>
   </si>
 </sst>
 </file>
@@ -413,10 +437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -458,14 +482,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,50 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,72 +612,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -646,25 +670,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,37 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,25 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,73 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,17 +852,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,34 +909,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -905,173 +949,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1833,7 +1857,7 @@
   <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2252,10 +2276,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="2"/>
@@ -2279,7 +2303,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -2306,14 +2330,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -2321,7 +2385,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -2329,7 +2393,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2337,16 +2401,37 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
       <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>66</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -405,7 +405,7 @@
     <t>龚亚明(4)、韩克勋(2)、韩素萍、范志远(2，范志远的奶奶)、范子鑫、韩和芳带的一人</t>
   </si>
   <si>
-    <t>卞风松(2)、常本况(2)、龚思华(2)、崔和、赵公宪、何青(2)</t>
+    <t>卞风松(2)、常本况(2)、龚思华(2)、翠和、赵公宪、何青(2)</t>
   </si>
   <si>
     <t>邹午荧家：</t>
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="2"/>

--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="11720" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="婚车路线" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <t>陈健(2),张家霖(2)，万震熊(2),田泽明(2)，张文心(2)</t>
   </si>
   <si>
-    <t>徐昊辰(2),蒋鸿，孙武，龚乾明(2),孙秀伟、张其杰、王超</t>
+    <t>徐昊辰(2),蒋鸿，孙武，龚乾明(2),孙秀伟、张其杰、王超、马俊</t>
   </si>
   <si>
     <t>刘德茂(5)、龚粉章(5)</t>
@@ -437,10 +437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -482,12 +482,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -495,8 +503,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,8 +542,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,19 +588,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,36 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -587,44 +618,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -658,19 +658,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,163 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,20 +852,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +872,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,31 +907,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,17 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,148 +954,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,54 +1145,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1233,8 +1233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="1544320"/>
-          <a:ext cx="4652010" cy="10293350"/>
+          <a:off x="274955" y="1182370"/>
+          <a:ext cx="4652010" cy="7699375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,8 +1271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620635" y="1509395"/>
-          <a:ext cx="4645660" cy="10353675"/>
+          <a:off x="7620635" y="1147445"/>
+          <a:ext cx="4645660" cy="7759700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1548,7 +1548,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="68.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="82.1666666666667" customWidth="1"/>
@@ -1582,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -1590,7 +1590,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.4666666666667" customWidth="1"/>
@@ -1598,7 +1598,7 @@
     <col min="4" max="4" width="27.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:4">
+    <row r="2" ht="22.5" spans="1:4">
       <c r="A2" s="7">
         <v>0.229166666666667</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" ht="27" spans="1:4">
+    <row r="3" ht="22.5" spans="1:4">
       <c r="A3" s="7">
         <v>0.260416666666667</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="76" spans="1:4">
+    <row r="5" ht="57" spans="1:4">
       <c r="A5" s="7">
         <v>0.290277777777778</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="323" spans="1:3">
+    <row r="7" ht="242.25" spans="1:3">
       <c r="A7" s="7">
         <v>0.354166666666667</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="152" spans="1:3">
+    <row r="9" ht="114" spans="1:3">
       <c r="A9" s="7">
         <v>0.46875</v>
       </c>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
@@ -1861,127 +1861,127 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="157.833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:1">
+    <row r="1" ht="22.5" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:1">
+    <row r="2" ht="22.5" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:1">
+    <row r="3" ht="22.5" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:1">
+    <row r="4" ht="22.5" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="1:1">
+    <row r="5" ht="67.5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:1">
+    <row r="6" ht="22.5" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:1">
+    <row r="7" ht="22.5" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:1">
+    <row r="8" ht="22.5" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:1">
+    <row r="9" ht="22.5" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:1">
+    <row r="10" ht="22.5" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:1">
+    <row r="11" ht="22.5" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:1">
+    <row r="12" ht="22.5" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:1">
+    <row r="13" ht="22.5" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:1">
+    <row r="14" ht="22.5" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:1">
+    <row r="15" ht="22.5" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:1">
+    <row r="16" ht="22.5" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:1">
+    <row r="17" ht="22.5" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:1">
+    <row r="18" ht="22.5" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:1">
+    <row r="19" ht="22.5" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:1">
+    <row r="20" ht="22.5" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:1">
+    <row r="21" ht="22.5" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:1">
+    <row r="22" ht="22.5" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:1">
+    <row r="23" ht="22.5" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:1">
+    <row r="24" ht="22.5" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1993,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2001,7 +2001,7 @@
       <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="13.1666666666667" customWidth="1"/>
@@ -2010,7 +2010,7 @@
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="27" spans="1:4">
+    <row r="2" ht="22.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="54" spans="1:5">
+    <row r="3" ht="45" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:4">
+    <row r="4" ht="22.5" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" ht="22.5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="27" spans="1:4">
+    <row r="6" ht="22.5" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="27" spans="1:4">
+    <row r="7" ht="22.5" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="27" spans="1:4">
+    <row r="8" ht="22.5" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" ht="27" spans="1:4">
+    <row r="9" ht="22.5" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="27" spans="1:4">
+    <row r="10" ht="22.5" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="27" spans="1:4">
+    <row r="11" ht="22.5" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2130,13 +2130,13 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="27" spans="1:4">
+    <row r="12" ht="22.5" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" ht="27" spans="1:4">
+    <row r="13" ht="22.5" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2157,12 +2157,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" ht="22.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" ht="27" spans="1:3">
+    <row r="2" ht="22.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="27" spans="1:3">
+    <row r="3" ht="22.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" ht="27" spans="1:3">
+    <row r="4" ht="22.5" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" ht="22.5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="27" spans="1:4">
+    <row r="6" ht="22.5" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="27" spans="1:4">
+    <row r="7" ht="22.5" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="27" spans="1:4">
+    <row r="8" ht="22.5" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" ht="27" spans="1:4">
+    <row r="9" ht="22.5" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <f>SUM(B1:B8)</f>
@@ -2247,22 +2247,22 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="27" spans="2:4">
+    <row r="10" ht="22.5" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="27" spans="2:4">
+    <row r="11" ht="22.5" spans="2:4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="27" spans="2:4">
+    <row r="12" ht="22.5" spans="2:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" ht="27" spans="2:4">
+    <row r="13" ht="22.5" spans="2:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2274,15 +2274,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="76.1666666666667" customWidth="1"/>
   </cols>
@@ -2327,7 +2327,7 @@
         <v>95</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2426,7 +2426,7 @@
     <row r="19" spans="2:2">
       <c r="B19">
         <f>SUM(B2:B18)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28660" windowHeight="11980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="婚车路线" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>婚车:1辆红色Model X特斯拉+5辆红色新款奔驰C</t>
   </si>
@@ -309,6 +309,9 @@
     <t>厨师长再沟通下分量,准备好几包烟</t>
   </si>
   <si>
+    <t>给婚车司机准备水，烟，糖，糕</t>
+  </si>
+  <si>
     <t>定金</t>
   </si>
   <si>
@@ -321,7 +324,7 @@
     <t>喜糖</t>
   </si>
   <si>
-    <t>150份(我和邹午荧同事)+200份(邹午荧父母那边)+130份(婚礼当天)，送5斤散糖</t>
+    <t>150份(我和邹午荧同事)+200份(邹午荧父母那边)+130份(婚礼当天)，送5斤散糖，我们这边还需要称15斤散糖</t>
   </si>
   <si>
     <t>邹午荧父母180份喜糖，两条烟，大红包，小红包</t>
@@ -378,7 +381,7 @@
     <t>桌号</t>
   </si>
   <si>
-    <t>龚伟一家(3)、邹午荧一家(3),邹午荧的爷爷、奶奶、外公、外婆</t>
+    <t>龚伟一家(3)、邹午荧一家(3),邹午荧的爷爷、奶奶、外公、外婆、龚伟的外婆</t>
   </si>
   <si>
     <t>主桌</t>
@@ -402,7 +405,7 @@
     <t>龚思明(4)、龚思情(4)、龚圣爱、储炳富</t>
   </si>
   <si>
-    <t>龚亚明(4)、韩克勋(2)、韩素萍、范志远(2，范志远的奶奶)、范子鑫、韩和芳带的一人</t>
+    <t>龚亚明(4)、韩克勋、韩素萍、范志远(2，范志远的奶奶)、范子鑫、韩和芳带的一人</t>
   </si>
   <si>
     <t>卞风松(2)、常本况(2)、龚思华(2)、翠和、赵公宪、何青(2)</t>
@@ -481,8 +484,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,120 +628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -658,31 +661,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,25 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,121 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,17 +855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,21 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -921,11 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,153 +937,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,54 +1148,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1233,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="1182370"/>
-          <a:ext cx="4652010" cy="7699375"/>
+          <a:off x="274955" y="1544320"/>
+          <a:ext cx="4652010" cy="10293350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,8 +1274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620635" y="1147445"/>
-          <a:ext cx="4645660" cy="7759700"/>
+          <a:off x="7620635" y="1509395"/>
+          <a:ext cx="4645660" cy="10353675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1548,7 +1551,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="68.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="82.1666666666667" customWidth="1"/>
@@ -1582,7 +1585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -1590,7 +1593,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="32.4666666666667" customWidth="1"/>
@@ -1598,7 +1601,7 @@
     <col min="4" max="4" width="27.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:4">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22.5" spans="1:4">
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" s="7">
         <v>0.229166666666667</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" ht="22.5" spans="1:4">
+    <row r="3" ht="27" spans="1:4">
       <c r="A3" s="7">
         <v>0.260416666666667</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:4">
+    <row r="5" ht="76" spans="1:4">
       <c r="A5" s="7">
         <v>0.290277777777778</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="242.25" spans="1:3">
+    <row r="7" ht="323" spans="1:3">
       <c r="A7" s="7">
         <v>0.354166666666667</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="114" spans="1:3">
+    <row r="9" ht="152" spans="1:3">
       <c r="A9" s="7">
         <v>0.46875</v>
       </c>
@@ -1853,137 +1856,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="157.833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
+    <row r="1" ht="27" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="22.5" spans="1:1">
+    <row r="2" ht="27" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="22.5" spans="1:1">
+    <row r="3" ht="27" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="22.5" spans="1:1">
+    <row r="4" ht="27" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:1">
+    <row r="5" ht="81" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="22.5" spans="1:1">
+    <row r="6" ht="27" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="22.5" spans="1:1">
+    <row r="7" ht="27" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="22.5" spans="1:1">
+    <row r="8" ht="27" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="22.5" spans="1:1">
+    <row r="9" ht="27" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="22.5" spans="1:1">
+    <row r="10" ht="27" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="22.5" spans="1:1">
+    <row r="11" ht="27" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="22.5" spans="1:1">
+    <row r="12" ht="27" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="22.5" spans="1:1">
+    <row r="13" ht="27" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="22.5" spans="1:1">
+    <row r="14" ht="27" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="22.5" spans="1:1">
+    <row r="15" ht="27" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="22.5" spans="1:1">
+    <row r="16" ht="27" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="22.5" spans="1:1">
+    <row r="17" ht="27" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="22.5" spans="1:1">
+    <row r="18" ht="27" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" ht="22.5" spans="1:1">
+    <row r="19" ht="27" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="22.5" spans="1:1">
+    <row r="20" ht="27" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="22.5" spans="1:1">
+    <row r="21" ht="27" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="22.5" spans="1:1">
+    <row r="22" ht="27" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="22.5" spans="1:1">
+    <row r="23" ht="27" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="22.5" spans="1:1">
+    <row r="24" ht="27" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1993,15 +2001,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="13.1666666666667" customWidth="1"/>
@@ -2010,19 +2018,19 @@
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:4">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="22.5" spans="1:4">
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
@@ -2032,9 +2040,9 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="45" spans="1:5">
+    <row r="3" ht="81" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
@@ -2043,15 +2051,15 @@
         <v>3804</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1">
         <v>40000</v>
@@ -2061,9 +2069,9 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" ht="22.5" spans="1:4">
+    <row r="5" ht="27" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -2071,7 +2079,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="22.5" spans="1:4">
+    <row r="6" ht="27" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2081,9 +2089,9 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="22.5" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2091,9 +2099,9 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="22.5" spans="1:4">
+    <row r="8" ht="27" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -2101,9 +2109,9 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" ht="22.5" spans="1:4">
+    <row r="9" ht="27" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -2111,9 +2119,9 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="22.5" spans="1:4">
+    <row r="10" ht="27" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -2121,7 +2129,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="22.5" spans="1:4">
+    <row r="11" ht="27" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2130,13 +2138,13 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="22.5" spans="1:4">
+    <row r="12" ht="27" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" ht="22.5" spans="1:4">
+    <row r="13" ht="27" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2149,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2157,50 +2165,50 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:3">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1">
         <v>2255</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" ht="22.5" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1">
         <v>4899</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="22.5" spans="1:3">
+    <row r="3" ht="27" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1">
         <v>1083</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" ht="22.5" spans="1:3">
+    <row r="4" ht="27" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1">
         <v>1398</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="22.5" spans="1:4">
+    <row r="5" ht="27" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>630</v>
@@ -2208,9 +2216,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="22.5" spans="1:4">
+    <row r="6" ht="27" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1">
         <v>130</v>
@@ -2218,9 +2226,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="22.5" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1">
         <v>1897</v>
@@ -2228,9 +2236,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="22.5" spans="1:4">
+    <row r="8" ht="27" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>700</v>
@@ -2238,7 +2246,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" ht="22.5" spans="1:4">
+    <row r="9" ht="27" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <f>SUM(B1:B8)</f>
@@ -2247,22 +2255,22 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="22.5" spans="2:4">
+    <row r="10" ht="27" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="22.5" spans="2:4">
+    <row r="11" ht="27" spans="2:4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="22.5" spans="2:4">
+    <row r="12" ht="27" spans="2:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" ht="22.5" spans="2:4">
+    <row r="13" ht="27" spans="2:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2274,49 +2282,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="76.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2332,7 +2340,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2340,7 +2348,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2348,7 +2356,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2356,15 +2364,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2372,12 +2380,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -2385,7 +2393,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -2393,7 +2401,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2401,7 +2409,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -2409,7 +2417,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -2417,7 +2425,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -2431,7 +2439,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/婚礼筹备.xlsx
+++ b/婚礼筹备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="11980" activeTab="2"/>
+    <workbookView windowWidth="28660" windowHeight="11980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="婚车路线" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     <t>陈健(2),张家霖(2)，万震熊(2),田泽明(2)，张文心(2)</t>
   </si>
   <si>
-    <t>徐昊辰(2),蒋鸿，孙武，龚乾明(2),孙秀伟、张其杰、王超、马俊</t>
+    <t>徐昊辰(2),蒋鸿，孙武，龚乾明(2),孙秀伟(2)、王超、马俊</t>
   </si>
   <si>
     <t>刘德茂(5)、龚粉章(5)</t>
@@ -429,7 +429,7 @@
     <t>吴妙研(2),李现春(2),张航(2),钱隽(3)</t>
   </si>
   <si>
-    <t>张玎雅(2),庄明,杨陶陶,黄羽洋(2),朱依然,陈苒(2)</t>
+    <t>张玎雅(2),庄明,杨陶陶,黄羽洋(2),朱依然,陈苒(2)、张其杰</t>
   </si>
   <si>
     <t>待定(巧兰及其儿子）</t>
@@ -440,10 +440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -484,6 +484,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -493,6 +500,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -501,7 +547,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,30 +599,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,81 +628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -661,187 +661,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,9 +866,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,21 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -917,188 +952,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,8 +1860,8 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19"/>
@@ -2286,8 +2286,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="2"/>
@@ -2428,13 +2428,13 @@
         <v>108</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
         <f>SUM(B2:B18)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:1">
